--- a/assets/card.xlsx
+++ b/assets/card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G Project\cards-of-gun\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G Project\cards of gun\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF9921-2B83-4747-A184-76AA92EDBE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E32558C-8B3A-405B-9B30-6F0CC5A3DF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -601,56 +601,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/card.xlsx
+++ b/assets/card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\G Project\cards of gun\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Godot\Cards of Gun\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E32558C-8B3A-405B-9B30-6F0CC5A3DF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE401119-920D-4FB7-8515-F9F085BBEFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="10432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>base_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,35 +444,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625" style="1"/>
-    <col min="9" max="9" width="11.796875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -488,116 +481,101 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
+      <c r="G5" s="1">
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
         <v>0</v>
       </c>
     </row>
